--- a/DaddyLoad/Assets/Gamefiles/DaddyLoadGit.xlsx
+++ b/DaddyLoad/Assets/Gamefiles/DaddyLoadGit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondre\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub shit\DaddyLoad\DaddyLoad\Assets\Gamefiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9AA4C4-FA69-4D97-BF7E-C45209672F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5292E96C-CABD-4A49-B89B-BE8758EF1D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29E100DC-A4CF-419B-A19A-A6775B7AF5CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{29E100DC-A4CF-419B-A19A-A6775B7AF5CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Block info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="155">
   <si>
     <t>Base</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Perc chance</t>
   </si>
   <si>
-    <t>100 - 20</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -442,7 +439,67 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>bag</t>
+    <t>Bound s</t>
+  </si>
+  <si>
+    <t>Lower b</t>
+  </si>
+  <si>
+    <t>Upper b</t>
+  </si>
+  <si>
+    <t>filler</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>titanium</t>
+  </si>
+  <si>
+    <t>iridium</t>
+  </si>
+  <si>
+    <t>platinum</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>aluminum</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>sapphire</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>sandstone</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>sum %</t>
   </si>
 </sst>
 </file>
@@ -501,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,6 +588,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAB5CB9-2ACE-4F5A-94FE-CD347CAB788A}">
   <dimension ref="B2:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,15 +951,15 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="2:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -918,10 +978,10 @@
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
@@ -930,10 +990,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="16"/>
       <c r="N7" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1072,7 @@
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>116</v>
@@ -1041,10 +1101,10 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="E14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1093,10 +1153,10 @@
       <c r="C17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="17"/>
       <c r="N17" t="s">
         <v>28</v>
       </c>
@@ -1109,7 +1169,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>123</v>
@@ -1132,8 +1192,8 @@
       <c r="F19" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1427,13 +1487,13 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="5" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -1575,19 +1635,19 @@
       <c r="I14" s="5"/>
     </row>
     <row r="16" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="J16" s="19" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="J16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="18" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
@@ -1715,20 +1775,20 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="J28" s="19" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="J28" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
@@ -1835,13 +1895,13 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
@@ -1888,13 +1948,13 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
@@ -1974,13 +2034,13 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
@@ -2076,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C232E2-E5E8-42E3-A9F7-9F9A3A46E46F}">
-  <dimension ref="D5:H24"/>
+  <dimension ref="E1:N42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,24 +2150,40 @@
     <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -2116,12 +2192,13 @@
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -2129,153 +2206,414 @@
       <c r="G8" s="3">
         <v>30</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F9" s="3">
         <v>25</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="14"/>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E27" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="3">
+        <v>450</v>
+      </c>
+      <c r="G27" s="3">
+        <v>500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" ref="I27:I38" si="0" xml:space="preserve"> 1000*H27</f>
+        <v>1000</v>
+      </c>
+      <c r="J27" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f xml:space="preserve"> J27+I27</f>
+        <v>1000</v>
+      </c>
+      <c r="N27" s="14" t="str">
+        <f xml:space="preserve"> "else if (y &gt;=  "   &amp;   F27  &amp; " &amp;&amp; y &lt; "   &amp; G27 &amp; " &amp;&amp; bm.h.v &gt;= " &amp; J27 &amp; " &amp;&amp; bm.h.v &lt; " &amp; K27 &amp; ") return " &amp; E27 &amp; ";"</f>
+        <v>else if (y &gt;=  450 &amp;&amp; y &lt; 500 &amp;&amp; bm.h.v &gt;= 0 &amp;&amp; bm.h.v &lt; 1000) return diamond;</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E28" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="3">
+        <v>400</v>
+      </c>
+      <c r="G28" s="3">
+        <v>500</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J28" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I27)</f>
+        <v>1000</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" ref="K28:K38" si="1" xml:space="preserve"> J28+I28</f>
+        <v>2000</v>
+      </c>
+      <c r="N28" s="14" t="str">
+        <f t="shared" ref="N28:N38" si="2" xml:space="preserve"> "else if (y &gt;=  "   &amp;   F28  &amp; " &amp;&amp; y &lt; "   &amp; G28 &amp; " &amp;&amp; bm.h.v &gt;= " &amp; J28 &amp; " &amp;&amp; bm.h.v &lt; " &amp; K28 &amp; ") return " &amp; E28 &amp; ";"</f>
+        <v>else if (y &gt;=  400 &amp;&amp; y &lt; 500 &amp;&amp; bm.h.v &gt;= 1000 &amp;&amp; bm.h.v &lt; 2000) return titanium;</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="3">
+        <v>350</v>
+      </c>
+      <c r="G29" s="3">
+        <v>500</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J29" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I28)</f>
+        <v>2000</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="N29" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>else if (y &gt;=  350 &amp;&amp; y &lt; 500 &amp;&amp; bm.h.v &gt;= 2000 &amp;&amp; bm.h.v &lt; 3000) return iridium;</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="3">
+        <v>300</v>
+      </c>
+      <c r="G30" s="3">
+        <v>500</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J30" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I29)</f>
+        <v>3000</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="N30" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>else if (y &gt;=  300 &amp;&amp; y &lt; 500 &amp;&amp; bm.h.v &gt;= 3000 &amp;&amp; bm.h.v &lt; 4000) return platinum;</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E31" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="3">
+        <v>250</v>
+      </c>
+      <c r="G31" s="3">
+        <v>500</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J31" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I30)</f>
+        <v>4000</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="N31" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>else if (y &gt;=  250 &amp;&amp; y &lt; 500 &amp;&amp; bm.h.v &gt;= 4000 &amp;&amp; bm.h.v &lt; 5000) return copper;</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E32" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="3">
+        <v>150</v>
+      </c>
+      <c r="G32" s="3">
+        <v>350</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J32" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I31)</f>
+        <v>5000</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>6500</v>
+      </c>
+      <c r="N32" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>else if (y &gt;=  150 &amp;&amp; y &lt; 350 &amp;&amp; bm.h.v &gt;= 5000 &amp;&amp; bm.h.v &lt; 6500) return gold;</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E33" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="3">
+        <v>150</v>
+      </c>
+      <c r="G33" s="3">
+        <v>180</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J33" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I32)</f>
+        <v>6500</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="N33" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>else if (y &gt;=  150 &amp;&amp; y &lt; 180 &amp;&amp; bm.h.v &gt;= 6500 &amp;&amp; bm.h.v &lt; 8000) return lead;</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E34" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="G34" s="3">
+        <v>300</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J34" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I33)</f>
+        <v>8000</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="1"/>
+        <v>9500</v>
+      </c>
+      <c r="N34" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>else if (y &gt;=  100 &amp;&amp; y &lt; 300 &amp;&amp; bm.h.v &gt;= 8000 &amp;&amp; bm.h.v &lt; 9500) return silver;</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="3">
+        <v>50</v>
+      </c>
+      <c r="G35" s="3">
+        <v>150</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J35" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I34)</f>
+        <v>9500</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+      <c r="N35" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>else if (y &gt;=  50 &amp;&amp; y &lt; 150 &amp;&amp; bm.h.v &gt;= 9500 &amp;&amp; bm.h.v &lt; 11000) return iron;</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E36" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="3">
+        <v>40</v>
+      </c>
+      <c r="G36" s="3">
+        <v>150</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J36" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I35)</f>
+        <v>11000</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="N36" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>else if (y &gt;=  40 &amp;&amp; y &lt; 150 &amp;&amp; bm.h.v &gt;= 11000 &amp;&amp; bm.h.v &lt; 12500) return aluminum;</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="3">
         <v>10</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G37" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+      <c r="H37" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="J37" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I36)</f>
+        <v>12500</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="N37" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>else if (y &gt;=  10 &amp;&amp; y &lt; 120 &amp;&amp; bm.h.v &gt;= 12500 &amp;&amp; bm.h.v &lt; 15000) return plastic;</v>
+      </c>
+    </row>
+    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E38" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3">
+        <v>120</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="J38" s="3">
+        <f xml:space="preserve"> SUM(I$20:$I37)</f>
+        <v>15000</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="1"/>
+        <v>17500</v>
+      </c>
+      <c r="N38" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>else if (y &gt;=  10 &amp;&amp; y &lt; 120 &amp;&amp; bm.h.v &gt;= 15000 &amp;&amp; bm.h.v &lt; 17500) return bronze;</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E40" s="12"/>
+      <c r="G40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="14"/>
+    </row>
+    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="3">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3">
-        <v>40</v>
-      </c>
-      <c r="G13" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>50</v>
-      </c>
-      <c r="G14" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="3">
-        <v>150</v>
-      </c>
-      <c r="G16" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3">
-        <v>150</v>
-      </c>
-      <c r="G17" s="3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="3">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="12"/>
-      <c r="G23" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
+      <c r="K42" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/DaddyLoad/Assets/Gamefiles/DaddyLoadGit.xlsx
+++ b/DaddyLoad/Assets/Gamefiles/DaddyLoadGit.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub shit\DaddyLoad\DaddyLoad\Assets\Gamefiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5292E96C-CABD-4A49-B89B-BE8758EF1D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5EDF27-C8C7-465E-A4B9-0C5796993614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{29E100DC-A4CF-419B-A19A-A6775B7AF5CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Block info" sheetId="1" r:id="rId1"/>
     <sheet name="Upgrades info" sheetId="2" r:id="rId2"/>
-    <sheet name="Desert" sheetId="3" r:id="rId3"/>
+    <sheet name="Ship upgrades info" sheetId="4" r:id="rId3"/>
+    <sheet name="Desert" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="169">
   <si>
     <t>Base</t>
   </si>
@@ -500,6 +501,48 @@
   </si>
   <si>
     <t>sum %</t>
+  </si>
+  <si>
+    <t>Upgradujou playera:</t>
+  </si>
+  <si>
+    <t>Thrusters</t>
+  </si>
+  <si>
+    <t>Drill</t>
+  </si>
+  <si>
+    <t>Temp shields</t>
+  </si>
+  <si>
+    <t>Pressure shields</t>
+  </si>
+  <si>
+    <t>Others:</t>
+  </si>
+  <si>
+    <t>Comm room</t>
+  </si>
+  <si>
+    <t>Circuitry</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Flaps</t>
+  </si>
+  <si>
+    <t>Bodywork</t>
+  </si>
+  <si>
+    <t>Cargo bay</t>
+  </si>
+  <si>
+    <t>Reactor room</t>
+  </si>
+  <si>
+    <t>Fuel tank</t>
   </si>
 </sst>
 </file>
@@ -1464,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673C5BEE-42BE-48CA-A233-DB09BCF18EC7}">
   <dimension ref="B2:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,10 +2178,96 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8BF31D-0BC8-4EB1-8029-77FA04ACEE19}">
+  <dimension ref="C4:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C232E2-E5E8-42E3-A9F7-9F9A3A46E46F}">
   <dimension ref="E1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
